--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>900866.8156038828</v>
+        <v>935464.9653669464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797168</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6793541.445844376</v>
+        <v>7332276.505558664</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>378.8930818762257</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>85.4311693664808</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.1077460700514</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -832,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -896,16 +898,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>269.8378149909688</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>351.5456573622691</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>90.30617524481318</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>279.1245714863819</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>47.31231422130926</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1339,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830507</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>140.4342819615948</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>390.2334125888107</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>272.1494839753878</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225787</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>233.343789998799</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.7543113143534</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>33.2899652019082</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2011,10 +2013,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2248,13 +2250,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>144.9471505564955</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998732</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>2.292363805516792</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2773,13 +2775,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>67.42894579208379</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3566,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3664,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>2.292363805516792</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>15.19385661134979</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>62.61079093391727</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.13954148002301</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>60.9489922286964</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>29.92029206558524</v>
       </c>
       <c r="W44" t="n">
-        <v>119.7254844869148</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4195,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>236.7445945665695</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C2" t="n">
-        <v>202.6425257903969</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D2" t="n">
-        <v>170.7731450052455</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>141.0388042039447</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1844.930551071281</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2522.396136014086</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2517.167459510636</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2257.945156827654</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>1895.32820676148</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>1490.472752172513</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X2" t="n">
-        <v>1071.330288751824</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y2" t="n">
-        <v>663.0441650514773</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>80.80836689320955</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>80.80836689320955</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>758.2739518360149</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>758.2739518360149</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>758.2739518360149</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>758.2739518360149</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1435.73953677882</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>863.9972407989397</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C4" t="n">
-        <v>691.4355292821647</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D4" t="n">
-        <v>691.4355292821647</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2556.575496640966</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2310.696050219422</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>2032.263049472527</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V4" t="n">
-        <v>1745.307541342957</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1473.281136929249</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X4" t="n">
-        <v>1227.889382262661</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000.469711576769</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1223.469175800109</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C5" t="n">
-        <v>1189.367107023936</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D5" t="n">
-        <v>916.8036575381091</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E5" t="n">
-        <v>483.0289126964042</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>732.2102786755574</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1409.675863618363</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>2087.141448561168</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O5" t="n">
-        <v>2737.234686637598</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2737.234686637598</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2737.234686637598</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.012383954615</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.012383954615</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W5" t="n">
-        <v>2073.156929365648</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X5" t="n">
-        <v>1654.014465944959</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y5" t="n">
-        <v>1245.728342244613</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>732.2102786755574</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>742.8207098557364</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>570.2589983389613</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>404.381005540484</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>234.6230017912213</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>143.4046429580766</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>143.4046429580766</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.6393285747235</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1524.114932457322</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1085.972459640745</v>
+        <v>1752.767796536277</v>
       </c>
       <c r="D8" t="n">
-        <v>650.0626748151899</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E8" t="n">
-        <v>368.1186632127839</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F8" t="n">
-        <v>344.2916376623957</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2916376623957</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2374.617736571424</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.802686022862</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2358.700626642576</v>
+        <v>2217.4151554573</v>
       </c>
       <c r="Y8" t="n">
-        <v>1950.41450294223</v>
+        <v>1809.129031756954</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>379.3030186989643</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>1056.76860364177</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>1056.76860364177</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>1056.76860364177</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N9" t="n">
-        <v>1056.76860364177</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O9" t="n">
-        <v>1056.76860364177</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2649.986482340924</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2635.847811706272</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>2357.414810959378</v>
+        <v>2210.968635687902</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>883.1113921784387</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>883.1113921784387</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>488.9362279473168</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
-        <v>55.16148310561195</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F11" t="n">
-        <v>55.16148310561195</v>
+        <v>368.6685679808615</v>
       </c>
       <c r="G11" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>54.74469373275195</v>
+        <v>254.9523156162913</v>
       </c>
       <c r="K11" t="n">
-        <v>54.74469373275195</v>
+        <v>1089.302607574469</v>
       </c>
       <c r="L11" t="n">
-        <v>732.2102786755574</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M11" t="n">
-        <v>1409.675863618363</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N11" t="n">
-        <v>2087.141448561168</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>2087.141448561168</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2478.012383954615</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>2115.395433888441</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>1710.539979299475</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1291.397515878785</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>883.1113921784387</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>363.05328532595</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K12" t="n">
-        <v>363.05328532595</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="L12" t="n">
-        <v>363.05328532595</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="M12" t="n">
-        <v>1040.518870268755</v>
+        <v>479.432103632509</v>
       </c>
       <c r="N12" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O12" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4798998523679</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C13" t="n">
-        <v>750.9181883355928</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D13" t="n">
-        <v>585.0401955371156</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2821917878528</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F13" t="n">
-        <v>238.575137749609</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>72.98386277543668</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.091856467112</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.136348337543</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.109943923834</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.718189257247</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.298518571355</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1790.439125807381</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>1352.296652990805</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>916.3868681652491</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>482.6121233235442</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>704.837931809182</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1382.303516751987</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M14" t="n">
-        <v>1382.303516751987</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N14" t="n">
-        <v>1382.303516751987</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>2059.769101694793</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2737.234686637598</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2653.582812821435</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2653.582812821435</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2653.582812821435</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2653.582812821435</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W14" t="n">
-        <v>2248.727358232468</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X14" t="n">
-        <v>1829.584894811779</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1790.439125807381</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>363.05328532595</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>363.05328532595</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>363.05328532595</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M15" t="n">
-        <v>363.05328532595</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N15" t="n">
-        <v>363.05328532595</v>
+        <v>202.4693123472852</v>
       </c>
       <c r="O15" t="n">
-        <v>1040.518870268755</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="P15" t="n">
-        <v>1717.984455211561</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>902.0620785577398</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C16" t="n">
-        <v>729.5003670409648</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D16" t="n">
-        <v>563.6223742424875</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E16" t="n">
-        <v>393.8643704932247</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F16" t="n">
-        <v>360.2381430165498</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G16" t="n">
-        <v>194.6468680423774</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2404.107035919379</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>2125.674035172484</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V16" t="n">
-        <v>1838.718527042915</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W16" t="n">
-        <v>1566.692122629206</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X16" t="n">
-        <v>1321.300367962619</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y16" t="n">
-        <v>1093.880697276727</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5513,52 +5515,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>634.526213836947</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>634.526213836947</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>634.526213836947</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5659,7 +5661,7 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,22 +5761,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6069,25 +6071,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,22 +6229,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.756527079655</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>845.1948155628801</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
         <v>842.8792965674086</v>
@@ -6421,13 +6423,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>380.3945678471324</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1455.454534099992</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2612.502369310543</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3738.23335274699</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,10 +6703,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
         <v>3007.131363532227</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J33" t="n">
-        <v>3449.802252060173</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K33" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4648.527086152673</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,46 +6925,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7175,40 +7177,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1134.430677610026</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>2291.478512820577</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>3417.209496257024</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>3752.579908427708</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4572.303074906906</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1017.756527079655</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>845.1948155628801</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1209.575145798642</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>942.0092413014878</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>503.8667684849111</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>488.5194385744568</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>54.74469373275195</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N41" t="n">
-        <v>2059.769101694793</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>4279.918759052108</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>2174.293283011491</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>1769.437828422524</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>1350.295365001834</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>942.0092413014878</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>968.2115793704611</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>795.649867853686</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>629.7718750552087</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>460.0138713059459</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>283.3068172677021</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2244.865667217376</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.432666470481</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1904.868027855636</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1632.841623441928</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1387.44986877534</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1160.030198089448</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1362.571696216589</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>924.4292234000122</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>488.5194385744568</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>54.74469373275195</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>732.2102786755574</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M44" t="n">
-        <v>1409.675863618363</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N44" t="n">
-        <v>2087.141448561168</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>2737.234686637598</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2737.234686637598</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>2616.299853822532</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>2197.157390401843</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1788.871266701497</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>3531.436949455166</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>3424.980488291808</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>3329.890199438361</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>3235.769784765315</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>3152.385946381477</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>3067.000856647661</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>3025.265204463873</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>3051.328877624331</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>3375.887202590544</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>4030.593249216267</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>4571.332187848342</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>4625.049528391065</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>4494.870884721667</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>4318.534337721635</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>4119.416819783634</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>3934.094065516828</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>3779.226629755708</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>3652.740850534929</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1199.63323734668</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>1027.071525829905</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>861.1935330314275</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E46" t="n">
-        <v>691.4355292821647</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F46" t="n">
-        <v>514.7284752439209</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G46" t="n">
-        <v>349.1372002697486</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
-        <v>209.2350259601232</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.81686534297</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2556.575496640966</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2310.696050219422</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2032.263049472527</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1745.307541342957</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1745.307541342957</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1618.871526751559</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>1391.451856065667</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8055,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.7395356953541</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O5" t="n">
-        <v>656.6598364408383</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593996</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8529,31 +8531,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="P9" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>104.640860725086</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>285.0958772047883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>363.2306375284826</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593994</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>656.6598364408385</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593995</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>280.9431591680331</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,19 +10585,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>257.1019996863001</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>1042.595795292168</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10841,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>305.8360165328636</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11063,22 +11065,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>656.6598364408383</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>412.7133402935096</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>41.31727438848924</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>125.2343690875809</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142713</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>125.6469905667127</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.4489511489897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>141.6500182959531</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>160.795820744408</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>124.3589898130759</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473419</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>208.2197249473419</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>416.3568303659501</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>194.019288722236</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>223.1369608195774</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>329.0704884999265</v>
       </c>
       <c r="W44" t="n">
-        <v>281.0814155561623</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>638200.8257817192</v>
+        <v>637671.5229042482</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>638200.8257817192</v>
+        <v>637671.5229042482</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>638200.8257817192</v>
+        <v>637671.5229042482</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>421336.3826100078</v>
+        <v>606240.7171760196</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421336.3826100078</v>
+        <v>606240.7171760194</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>646470.2748733613</v>
+        <v>646470.2748733615</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646470.2748733615</v>
+        <v>646470.2748733613</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>421336.3826100078</v>
+        <v>606240.7171760196</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421336.3826100078</v>
+        <v>606240.7171760196</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315052</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="E2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="F2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="H2" t="n">
+        <v>329285.9900858451</v>
+      </c>
+      <c r="I2" t="n">
         <v>329285.990085845</v>
-      </c>
-      <c r="I2" t="n">
-        <v>329285.9900858451</v>
       </c>
       <c r="J2" t="n">
         <v>329285.9900858451</v>
@@ -26341,7 +26343,7 @@
         <v>329285.990085845</v>
       </c>
       <c r="L2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="M2" t="n">
         <v>329285.9900858451</v>
@@ -26350,10 +26352,10 @@
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
       <c r="P2" t="n">
-        <v>214611.8287249991</v>
+        <v>308794.6693678432</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145586.4697342201</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="C4" t="n">
-        <v>145586.4697342201</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>145586.4697342201</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>35560.61726858468</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="F4" t="n">
-        <v>35560.61726858468</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
@@ -26436,7 +26438,7 @@
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962274</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962275</v>
@@ -26448,16 +26450,16 @@
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962274</v>
       </c>
       <c r="O4" t="n">
-        <v>35560.61726858468</v>
+        <v>51166.46699861008</v>
       </c>
       <c r="P4" t="n">
-        <v>35560.61726858468</v>
+        <v>51166.46699861009</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-115055.5370121193</v>
+        <v>-110830.3424600865</v>
       </c>
       <c r="C6" t="n">
-        <v>114272.0379603936</v>
+        <v>112869.3561239582</v>
       </c>
       <c r="D6" t="n">
-        <v>114272.0379603937</v>
+        <v>112869.3561239583</v>
       </c>
       <c r="E6" t="n">
-        <v>137445.2442195229</v>
+        <v>35697.1733151566</v>
       </c>
       <c r="F6" t="n">
-        <v>137445.2442195229</v>
+        <v>186362.9268869043</v>
       </c>
       <c r="G6" t="n">
-        <v>34212.63857198844</v>
+        <v>167916.1171978219</v>
       </c>
       <c r="H6" t="n">
+        <v>197005.9263704298</v>
+      </c>
+      <c r="I6" t="n">
         <v>197005.9263704297</v>
       </c>
-      <c r="I6" t="n">
-        <v>197005.9263704298</v>
-      </c>
       <c r="J6" t="n">
-        <v>17960.66828277786</v>
+        <v>22354.57765272362</v>
       </c>
       <c r="K6" t="n">
         <v>197005.9263704297</v>
       </c>
       <c r="L6" t="n">
-        <v>197005.9263704297</v>
+        <v>197005.9263704299</v>
       </c>
       <c r="M6" t="n">
-        <v>197005.9263704298</v>
+        <v>71254.83803473925</v>
       </c>
       <c r="N6" t="n">
-        <v>197005.9263704298</v>
+        <v>197005.9263704299</v>
       </c>
       <c r="O6" t="n">
-        <v>137445.2442195229</v>
+        <v>186362.9268869043</v>
       </c>
       <c r="P6" t="n">
-        <v>137445.244219523</v>
+        <v>186362.9268869044</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>52.65760510107418</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>338.1575859284035</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.79268646174583</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27616,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>161.7128719863312</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>52.65760510107395</v>
       </c>
     </row>
     <row r="6">
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>84.63380825304816</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>150.3124259069058</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>367.6387245651731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290242</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>143.651671086679</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.7395356953541</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O5" t="n">
-        <v>656.6598364408383</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>684.3086716593996</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>345.0097498941943</v>
       </c>
       <c r="P9" t="n">
-        <v>3.337509942803763</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>104.640860725086</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>285.0958772047883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>684.3086716593995</v>
+        <v>363.2306375284826</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593994</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>656.6598364408385</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593995</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="O15" t="n">
-        <v>684.3086716593995</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36127,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36452,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>753.9218057523904</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>280.9431591680331</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,16 +36843,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1005.515419242839</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599073</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>257.1019996863001</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
-        <v>1042.595795292168</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37561,10 +37563,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>305.8360165328636</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,22 +37785,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>656.6598364408383</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>412.7133402935096</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>935464.9653669464</v>
+        <v>934858.8777380495</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797168</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>335.4789331224958</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>378.8930818762257</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -831,10 +831,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H4" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>287.0614626441343</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>351.5456573622691</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>419.9023013107135</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>47.31231422130926</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1341,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>140.4342819615948</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>272.1494839753878</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>3.47781668768745</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V14" t="n">
-        <v>233.343789998799</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>47.61404849749851</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2250,7 +2250,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>104.6990987647609</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2301,13 +2301,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>144.9471505564955</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2775,10 +2775,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3793,19 +3793,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>62.61079093391727</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>403.8720952516329</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.13954148002301</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344288</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>266.7808108582859</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>29.92029206558524</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>187.453773041968</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170481</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.8253404203546</v>
+        <v>981.4316298953097</v>
       </c>
       <c r="C2" t="n">
-        <v>489.6828676037779</v>
+        <v>947.329561119137</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901678</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4348,10 +4348,10 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.411034605609</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.124910905262</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.1364226482442</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>749.5747111314691</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>583.6967183329918</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>413.9387145837291</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F4" t="n">
-        <v>237.2316605454853</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G4" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.766466719711</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.374712053123</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.955041367231</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1385.055244562854</v>
+        <v>428.7930370433824</v>
       </c>
       <c r="C5" t="n">
-        <v>946.912771746277</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>511.0029869207216</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901678</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362199</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2586.408952615265</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>2181.553498026298</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X5" t="n">
-        <v>1762.411034605609</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.314411007357</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.86986531245</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>531.106321578008</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.4151554573</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1809.129031756954</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>714.2412710704069</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1375.081325612185</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4989,13 +4989,13 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
         <v>2069.115825625685</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238914</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.310742413359</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>796.5359975716538</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>368.6685679808615</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885365</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>254.9523156162913</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1089.302607574469</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>119.8337724793113</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>479.432103632509</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.2661363957848</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>771.7044248790097</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>605.8264320805324</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>436.0684283312697</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
         <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2231.279152143079</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1793.136679326502</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1357.226894500947</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>923.452149659242</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684498</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171365</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
         <v>529.0247867717716</v>
@@ -5284,46 +5284,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V14" t="n">
-        <v>3889.86276433799</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W14" t="n">
-        <v>3485.007309749023</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.864846328333</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y14" t="n">
-        <v>2657.578722627987</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>202.4693123472852</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5421,19 +5421,19 @@
         <v>624.065601123217</v>
       </c>
       <c r="E16" t="n">
-        <v>454.3075973739543</v>
+        <v>624.065601123217</v>
       </c>
       <c r="F16" t="n">
-        <v>277.6005433357104</v>
+        <v>447.3585470849732</v>
       </c>
       <c r="G16" t="n">
-        <v>112.0092683615381</v>
+        <v>281.7672721108009</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>141.8650978011754</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,25 +5521,25 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>634.526213836947</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5779,10 +5779,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.9519976190925</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>743.3902861023174</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>577.5122933038401</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>407.7542895545774</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
         <v>407.7542895545774</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2613.163784754629</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2367.284338333084</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W22" t="n">
-        <v>1580.582041690559</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X22" t="n">
-        <v>1335.190287023971</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y22" t="n">
-        <v>1107.77061633808</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,25 +6071,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1726.993304878938</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
         <v>5113.04201353898</v>
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6776,10 +6776,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
         <v>1107.588885023173</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6925,46 +6925,46 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
         <v>4809.322912595856</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>3752.579908427708</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4572.303074906906</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7405,52 +7405,52 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1168.830065571713</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2325.877900782264</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>3451.608884218711</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3451.608884218711</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4279.918759052108</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4604.853092126519</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>3774.137464305806</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X41" t="n">
         <v>3354.995000885117</v>
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7493,37 +7493,37 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4064111265855</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773227</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907892</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7642,10 +7642,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815721</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.215436132738</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.992918894773</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W44" t="n">
-        <v>3774.137464305806</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3531.436949455166</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>3424.980488291808</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>3329.890199438361</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>3235.769784765315</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>3152.385946381477</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>3067.000856647661</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>3025.265204463873</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>3051.328877624331</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>3375.887202590544</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>4030.593249216267</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>4571.332187848342</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>4688.504965942682</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>4625.049528391065</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>4494.870884721667</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>4318.534337721635</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>4119.416819783634</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>3934.094065516828</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>3779.226629755708</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>3652.740850534929</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>803.2639367364659</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C46" t="n">
-        <v>630.7022252196908</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D46" t="n">
-        <v>464.8242324212135</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E46" t="n">
-        <v>295.0662286719508</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F46" t="n">
-        <v>118.359174633707</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885365</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7839,19 +7839,19 @@
         <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2026.87589335121</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="V46" t="n">
-        <v>1739.920385221641</v>
+        <v>2018.353385968536</v>
       </c>
       <c r="W46" t="n">
-        <v>1467.893980807932</v>
+        <v>1746.326981554827</v>
       </c>
       <c r="X46" t="n">
-        <v>1222.502226141345</v>
+        <v>1500.93522688824</v>
       </c>
       <c r="Y46" t="n">
-        <v>995.0825554554531</v>
+        <v>1273.515556202348</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047206</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>469.6822035600078</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>345.0097498941943</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>162.8103194923613</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8710,10 +8710,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M12" t="n">
-        <v>363.2306375284826</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>809.0782778761404</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,10 +9017,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328636</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>412.7133402935096</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761404</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>125.2343690875809</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>411.473222098795</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V14" t="n">
-        <v>125.6469905667127</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>40.1593012355729</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>52.94985625022238</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>194.019288722236</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>11.07894353484949</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>122.4480280049969</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>155.2557639217728</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>329.0704884999265</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>2.446659489829244</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606240.7171760194</v>
+        <v>606240.7171760196</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>646470.2748733615</v>
+        <v>646470.2748733613</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>646470.2748733615</v>
+        <v>646470.2748733613</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646470.2748733613</v>
+        <v>646470.2748733615</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606240.7171760196</v>
+        <v>606240.7171760197</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>335092.0749315052</v>
       </c>
       <c r="C2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315052</v>
       </c>
       <c r="D2" t="n">
-        <v>335092.0749315051</v>
+        <v>335092.0749315053</v>
       </c>
       <c r="E2" t="n">
         <v>308794.6693678432</v>
       </c>
       <c r="F2" t="n">
-        <v>308794.6693678432</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="G2" t="n">
-        <v>329285.9900858451</v>
+        <v>329285.990085845</v>
       </c>
       <c r="H2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="I2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="J2" t="n">
         <v>329285.9900858451</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.990085845</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858451</v>
@@ -26352,7 +26352,7 @@
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>308794.6693678432</v>
+        <v>308794.6693678433</v>
       </c>
       <c r="P2" t="n">
         <v>308794.6693678432</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>148010.1942457891</v>
       </c>
       <c r="C4" t="n">
-        <v>148010.1942457891</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457891</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="F4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="G4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54561.82510962277</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962274</v>
-      </c>
-      <c r="J4" t="n">
-        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="M4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="M4" t="n">
-        <v>54561.82510962272</v>
-      </c>
       <c r="N4" t="n">
-        <v>54561.82510962274</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>51166.46699861008</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.4669986101</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-110830.3424600865</v>
       </c>
       <c r="C6" t="n">
-        <v>112869.3561239582</v>
+        <v>112869.3561239583</v>
       </c>
       <c r="D6" t="n">
-        <v>112869.3561239583</v>
+        <v>112869.3561239584</v>
       </c>
       <c r="E6" t="n">
-        <v>35697.1733151566</v>
+        <v>35591.98369290172</v>
       </c>
       <c r="F6" t="n">
-        <v>186362.9268869043</v>
+        <v>186257.7372646498</v>
       </c>
       <c r="G6" t="n">
-        <v>167916.1171978219</v>
+        <v>167892.8928584393</v>
       </c>
       <c r="H6" t="n">
-        <v>197005.9263704298</v>
+        <v>196982.7020310472</v>
       </c>
       <c r="I6" t="n">
-        <v>197005.9263704297</v>
+        <v>196982.7020310472</v>
       </c>
       <c r="J6" t="n">
-        <v>22354.57765272362</v>
+        <v>22331.35331334106</v>
       </c>
       <c r="K6" t="n">
-        <v>197005.9263704297</v>
+        <v>196982.7020310472</v>
       </c>
       <c r="L6" t="n">
-        <v>197005.9263704299</v>
+        <v>196982.7020310472</v>
       </c>
       <c r="M6" t="n">
-        <v>71254.83803473925</v>
+        <v>71231.61369535635</v>
       </c>
       <c r="N6" t="n">
-        <v>197005.9263704299</v>
+        <v>196982.7020310472</v>
       </c>
       <c r="O6" t="n">
-        <v>186362.9268869043</v>
+        <v>186257.7372646498</v>
       </c>
       <c r="P6" t="n">
-        <v>186362.9268869044</v>
+        <v>186257.7372646497</v>
       </c>
     </row>
   </sheetData>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>52.65760510107418</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>146.6995854442766</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.65760510107395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.64838566658642</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>367.6387245651731</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047206</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>469.6822035600078</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>345.0097498941943</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>162.8103194923613</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35430,10 +35430,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M12" t="n">
-        <v>363.2306375284826</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>809.0782778761404</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35889,19 +35889,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328636</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>412.7133402935096</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761404</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.319239015882</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
